--- a/SaleslandVacations/BackEnd/SaleslandCodes/HC al 06-02-2023.xlsx
+++ b/SaleslandVacations/BackEnd/SaleslandCodes/HC al 06-02-2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Salesland\SaleslandVacations\BackEnd\SaleslandCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775FA534-1159-4588-8D93-9DA8303B3B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AED5113-EBA5-4FC6-AB9E-C570F35CE519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{55CD2075-FCAC-4D0B-AE5A-27D23E7F8B72}"/>
   </bookViews>

--- a/SaleslandVacations/BackEnd/SaleslandCodes/HC al 06-02-2023.xlsx
+++ b/SaleslandVacations/BackEnd/SaleslandCodes/HC al 06-02-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Salesland\SaleslandVacations\BackEnd\SaleslandCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AED5113-EBA5-4FC6-AB9E-C570F35CE519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A56C346-44F6-4C83-BA86-62E038B6B27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{55CD2075-FCAC-4D0B-AE5A-27D23E7F8B72}"/>
   </bookViews>
@@ -2340,7 +2340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2407,6 +2407,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2783,7 +2784,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95425AC0-4485-45E9-9B38-5A4E0DB4712E}" name="Tabla1" displayName="Tabla1" ref="A5:G234" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A5:G234" xr:uid="{95425AC0-4485-45E9-9B38-5A4E0DB4712E}"/>
+  <autoFilter ref="A5:G234" xr:uid="{95425AC0-4485-45E9-9B38-5A4E0DB4712E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MENA CHACAGUAZAY SHANEL PAMELA"/>
+        <filter val="MENA COBA MARIA SOLEDAD"/>
+        <filter val="MENA VILLALBA DIEGO FERNANDO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G231">
     <sortCondition ref="D5:D231"/>
   </sortState>
@@ -3103,7 +3112,7 @@
       <pane xSplit="7" ySplit="5" topLeftCell="H214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:A234"/>
+      <selection pane="bottomRight" activeCell="G220" sqref="G220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,7 +3158,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -3172,7 +3181,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>114</v>
       </c>
@@ -3195,7 +3204,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -3218,7 +3227,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>130</v>
       </c>
@@ -3241,7 +3250,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>134</v>
       </c>
@@ -3264,7 +3273,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>200</v>
       </c>
@@ -3287,7 +3296,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>277</v>
       </c>
@@ -3310,7 +3319,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>290</v>
       </c>
@@ -3333,7 +3342,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>162</v>
       </c>
@@ -3356,7 +3365,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>202</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>264</v>
       </c>
@@ -3402,7 +3411,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>275</v>
       </c>
@@ -3425,7 +3434,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>300</v>
       </c>
@@ -3448,7 +3457,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>329</v>
       </c>
@@ -3471,7 +3480,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>367</v>
       </c>
@@ -3494,7 +3503,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>395</v>
       </c>
@@ -3517,7 +3526,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>190</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>680</v>
       </c>
@@ -3586,7 +3595,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>175</v>
       </c>
@@ -3609,7 +3618,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>249</v>
       </c>
@@ -3632,7 +3641,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>681</v>
       </c>
@@ -3655,7 +3664,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>292</v>
       </c>
@@ -3678,7 +3687,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>682</v>
       </c>
@@ -3701,7 +3710,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>327</v>
       </c>
@@ -3724,7 +3733,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>391</v>
       </c>
@@ -3747,7 +3756,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>683</v>
       </c>
@@ -3770,7 +3779,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>46</v>
       </c>
@@ -3793,7 +3802,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>50</v>
       </c>
@@ -3816,7 +3825,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>141</v>
       </c>
@@ -3839,7 +3848,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>152</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>223</v>
       </c>
@@ -3885,7 +3894,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>239</v>
       </c>
@@ -3908,7 +3917,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>304</v>
       </c>
@@ -3931,7 +3940,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>310</v>
       </c>
@@ -3954,7 +3963,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>684</v>
       </c>
@@ -3977,7 +3986,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>9</v>
       </c>
@@ -4000,7 +4009,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>685</v>
       </c>
@@ -4023,7 +4032,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>60</v>
       </c>
@@ -4046,7 +4055,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>686</v>
       </c>
@@ -4069,7 +4078,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>68</v>
       </c>
@@ -4092,7 +4101,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>72</v>
       </c>
@@ -4115,7 +4124,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>106</v>
       </c>
@@ -4138,7 +4147,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>147</v>
       </c>
@@ -4161,7 +4170,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>154</v>
       </c>
@@ -4184,7 +4193,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>156</v>
       </c>
@@ -4207,7 +4216,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>687</v>
       </c>
@@ -4230,7 +4239,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>188</v>
       </c>
@@ -4253,7 +4262,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>243</v>
       </c>
@@ -4276,7 +4285,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>266</v>
       </c>
@@ -4299,7 +4308,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>321</v>
       </c>
@@ -4322,7 +4331,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>345</v>
       </c>
@@ -4345,7 +4354,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>363</v>
       </c>
@@ -4368,7 +4377,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>688</v>
       </c>
@@ -4391,7 +4400,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>370</v>
       </c>
@@ -4414,7 +4423,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>387</v>
       </c>
@@ -4437,7 +4446,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>19</v>
       </c>
@@ -4460,7 +4469,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>126</v>
       </c>
@@ -4483,7 +4492,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>128</v>
       </c>
@@ -4506,7 +4515,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>136</v>
       </c>
@@ -4529,7 +4538,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>208</v>
       </c>
@@ -4552,7 +4561,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>351</v>
       </c>
@@ -4575,7 +4584,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>44</v>
       </c>
@@ -4598,7 +4607,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>66</v>
       </c>
@@ -4621,7 +4630,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>87</v>
       </c>
@@ -4644,7 +4653,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>27</v>
       </c>
@@ -4667,7 +4676,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>33</v>
       </c>
@@ -4690,7 +4699,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>58</v>
       </c>
@@ -4713,7 +4722,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>273</v>
       </c>
@@ -4736,7 +4745,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>379</v>
       </c>
@@ -4759,7 +4768,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>219</v>
       </c>
@@ -4782,7 +4791,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>206</v>
       </c>
@@ -4805,7 +4814,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>52</v>
       </c>
@@ -4828,7 +4837,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>689</v>
       </c>
@@ -4851,7 +4860,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>383</v>
       </c>
@@ -4874,7 +4883,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>389</v>
       </c>
@@ -4897,7 +4906,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>403</v>
       </c>
@@ -4920,7 +4929,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>404</v>
       </c>
@@ -4943,7 +4952,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>405</v>
       </c>
@@ -4966,7 +4975,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>406</v>
       </c>
@@ -4989,7 +4998,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>407</v>
       </c>
@@ -5012,7 +5021,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>408</v>
       </c>
@@ -5035,7 +5044,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>409</v>
       </c>
@@ -5058,7 +5067,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>410</v>
       </c>
@@ -5081,7 +5090,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>411</v>
       </c>
@@ -5104,7 +5113,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>412</v>
       </c>
@@ -5127,7 +5136,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>413</v>
       </c>
@@ -5150,7 +5159,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>414</v>
       </c>
@@ -5173,7 +5182,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>415</v>
       </c>
@@ -5196,7 +5205,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="9" t="s">
         <v>675</v>
@@ -5217,7 +5226,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>3</v>
       </c>
@@ -5240,7 +5249,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>5</v>
       </c>
@@ -5263,7 +5272,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>7</v>
       </c>
@@ -5286,7 +5295,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>13</v>
       </c>
@@ -5309,7 +5318,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>15</v>
       </c>
@@ -5332,7 +5341,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>17</v>
       </c>
@@ -5355,7 +5364,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>21</v>
       </c>
@@ -5378,7 +5387,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>23</v>
       </c>
@@ -5401,7 +5410,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>25</v>
       </c>
@@ -5424,7 +5433,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>29</v>
       </c>
@@ -5447,7 +5456,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>31</v>
       </c>
@@ -5470,7 +5479,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>38</v>
       </c>
@@ -5493,7 +5502,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>48</v>
       </c>
@@ -5516,7 +5525,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>54</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>690</v>
       </c>
@@ -5562,7 +5571,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>64</v>
       </c>
@@ -5585,7 +5594,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>70</v>
       </c>
@@ -5608,7 +5617,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>74</v>
       </c>
@@ -5631,7 +5640,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>76</v>
       </c>
@@ -5654,7 +5663,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>78</v>
       </c>
@@ -5677,7 +5686,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>80</v>
       </c>
@@ -5700,7 +5709,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>82</v>
       </c>
@@ -5723,7 +5732,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>84</v>
       </c>
@@ -5746,7 +5755,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>691</v>
       </c>
@@ -5769,7 +5778,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>89</v>
       </c>
@@ -5792,7 +5801,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>94</v>
       </c>
@@ -5815,7 +5824,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>96</v>
       </c>
@@ -5838,7 +5847,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>100</v>
       </c>
@@ -5861,7 +5870,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>104</v>
       </c>
@@ -5884,7 +5893,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>108</v>
       </c>
@@ -5907,7 +5916,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>112</v>
       </c>
@@ -5930,7 +5939,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>692</v>
       </c>
@@ -5953,7 +5962,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>120</v>
       </c>
@@ -5976,7 +5985,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>102</v>
       </c>
@@ -5999,7 +6008,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>257</v>
       </c>
@@ -6022,7 +6031,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>132</v>
       </c>
@@ -6045,7 +6054,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>361</v>
       </c>
@@ -6068,7 +6077,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>143</v>
       </c>
@@ -6091,7 +6100,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>145</v>
       </c>
@@ -6114,7 +6123,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>149</v>
       </c>
@@ -6137,7 +6146,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>693</v>
       </c>
@@ -6160,7 +6169,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>158</v>
       </c>
@@ -6183,7 +6192,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>160</v>
       </c>
@@ -6206,7 +6215,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>167</v>
       </c>
@@ -6229,7 +6238,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>169</v>
       </c>
@@ -6252,7 +6261,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>171</v>
       </c>
@@ -6275,7 +6284,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>173</v>
       </c>
@@ -6298,7 +6307,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>177</v>
       </c>
@@ -6321,7 +6330,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>694</v>
       </c>
@@ -6344,7 +6353,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>180</v>
       </c>
@@ -6367,7 +6376,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>182</v>
       </c>
@@ -6390,7 +6399,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>186</v>
       </c>
@@ -6413,7 +6422,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>192</v>
       </c>
@@ -6436,7 +6445,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>196</v>
       </c>
@@ -6459,7 +6468,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>198</v>
       </c>
@@ -6482,7 +6491,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>204</v>
       </c>
@@ -6505,7 +6514,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>210</v>
       </c>
@@ -6528,7 +6537,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>695</v>
       </c>
@@ -6551,7 +6560,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>217</v>
       </c>
@@ -6597,7 +6606,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>233</v>
       </c>
@@ -6620,7 +6629,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>235</v>
       </c>
@@ -6643,7 +6652,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>237</v>
       </c>
@@ -6666,7 +6675,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>241</v>
       </c>
@@ -6689,7 +6698,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>247</v>
       </c>
@@ -6712,7 +6721,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>251</v>
       </c>
@@ -6735,7 +6744,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>253</v>
       </c>
@@ -6758,7 +6767,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>255</v>
       </c>
@@ -6781,7 +6790,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>271</v>
       </c>
@@ -6804,7 +6813,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>281</v>
       </c>
@@ -6827,7 +6836,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>696</v>
       </c>
@@ -6850,7 +6859,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>288</v>
       </c>
@@ -6873,7 +6882,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>697</v>
       </c>
@@ -6896,7 +6905,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>698</v>
       </c>
@@ -6919,7 +6928,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>699</v>
       </c>
@@ -6942,7 +6951,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>302</v>
       </c>
@@ -6965,7 +6974,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>306</v>
       </c>
@@ -6988,7 +6997,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>308</v>
       </c>
@@ -7011,7 +7020,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>313</v>
       </c>
@@ -7034,7 +7043,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>315</v>
       </c>
@@ -7057,7 +7066,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>317</v>
       </c>
@@ -7080,7 +7089,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>319</v>
       </c>
@@ -7103,7 +7112,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>323</v>
       </c>
@@ -7126,7 +7135,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>325</v>
       </c>
@@ -7149,7 +7158,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>331</v>
       </c>
@@ -7172,7 +7181,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>333</v>
       </c>
@@ -7195,7 +7204,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>335</v>
       </c>
@@ -7218,7 +7227,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>337</v>
       </c>
@@ -7241,7 +7250,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>339</v>
       </c>
@@ -7264,7 +7273,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>343</v>
       </c>
@@ -7287,7 +7296,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>347</v>
       </c>
@@ -7310,7 +7319,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>349</v>
       </c>
@@ -7333,7 +7342,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>355</v>
       </c>
@@ -7356,7 +7365,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>357</v>
       </c>
@@ -7379,7 +7388,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>359</v>
       </c>
@@ -7402,7 +7411,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>365</v>
       </c>
@@ -7425,7 +7434,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>372</v>
       </c>
@@ -7448,7 +7457,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>374</v>
       </c>
@@ -7471,7 +7480,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>376</v>
       </c>
@@ -7494,7 +7503,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>700</v>
       </c>
@@ -7517,7 +7526,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>381</v>
       </c>
@@ -7540,7 +7549,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>397</v>
       </c>
@@ -7563,7 +7572,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>399</v>
       </c>
@@ -7586,7 +7595,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>401</v>
       </c>
@@ -7609,7 +7618,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>165</v>
       </c>
@@ -7632,7 +7641,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>701</v>
       </c>
@@ -7655,7 +7664,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>56</v>
       </c>
@@ -7678,7 +7687,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>110</v>
       </c>
@@ -7701,7 +7710,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>118</v>
       </c>
@@ -7724,7 +7733,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>184</v>
       </c>
@@ -7747,7 +7756,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>194</v>
       </c>
@@ -7770,7 +7779,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>215</v>
       </c>
@@ -7793,7 +7802,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>221</v>
       </c>
@@ -7816,7 +7825,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>231</v>
       </c>
@@ -7839,7 +7848,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>245</v>
       </c>
@@ -7862,7 +7871,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>259</v>
       </c>
@@ -7885,7 +7894,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>262</v>
       </c>
@@ -7908,7 +7917,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>268</v>
       </c>
@@ -7931,7 +7940,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>279</v>
       </c>
@@ -7954,7 +7963,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>286</v>
       </c>
@@ -7977,7 +7986,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>341</v>
       </c>
@@ -8000,7 +8009,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>385</v>
       </c>
@@ -8023,7 +8032,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>393</v>
       </c>
@@ -8046,7 +8055,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
         <v>122</v>
       </c>
@@ -8088,11 +8097,11 @@
       <c r="F220" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="G220" s="15" t="s">
+      <c r="G220" s="26" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
         <v>283</v>
       </c>
@@ -8115,7 +8124,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
         <v>36</v>
       </c>
@@ -8138,7 +8147,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
         <v>353</v>
       </c>
@@ -8161,7 +8170,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
         <v>212</v>
       </c>
@@ -8184,7 +8193,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
         <v>42</v>
       </c>
@@ -8207,7 +8216,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
         <v>116</v>
       </c>
@@ -8230,7 +8239,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>124</v>
       </c>
@@ -8253,7 +8262,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>98</v>
       </c>
@@ -8276,7 +8285,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>91</v>
       </c>
@@ -8299,7 +8308,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>298</v>
       </c>
@@ -8322,7 +8331,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
         <v>139</v>
       </c>
@@ -8345,7 +8354,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
       <c r="B232" s="23" t="s">
         <v>677</v>
@@ -8358,7 +8367,7 @@
       </c>
       <c r="G232" s="22"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
       <c r="B233" s="12" t="s">
         <v>678</v>
@@ -8371,7 +8380,7 @@
       </c>
       <c r="G233" s="22"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="11"/>
       <c r="B234" s="12" t="s">
         <v>679</v>
@@ -8396,11 +8405,12 @@
   <hyperlinks>
     <hyperlink ref="G95" r:id="rId1" xr:uid="{CA8C1C6D-6B4B-4705-BF1D-6C091F4F3F24}"/>
     <hyperlink ref="B232" r:id="rId2" xr:uid="{07D67C3E-FDB0-4416-BF40-DB6A57D03119}"/>
+    <hyperlink ref="G220" r:id="rId3" xr:uid="{29D03728-9F74-4837-BD55-8DD33898CDD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/SaleslandVacations/BackEnd/SaleslandCodes/HC al 06-02-2023.xlsx
+++ b/SaleslandVacations/BackEnd/SaleslandCodes/HC al 06-02-2023.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Salesland\SaleslandVacations\BackEnd\SaleslandCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A56C346-44F6-4C83-BA86-62E038B6B27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{55CD2075-FCAC-4D0B-AE5A-27D23E7F8B72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Nomina al 02-02-2023" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nomina al 02-02-2023'!$A$5:$E$234</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1289,9 +1288,6 @@
     <t>0926006305</t>
   </si>
   <si>
-    <t xml:space="preserve"> RUIZ GONZALEZ  GENESIS PAOLA</t>
-  </si>
-  <si>
     <t>GAROFALO GARCIA NELSON MIGUEL</t>
   </si>
   <si>
@@ -2145,12 +2141,15 @@
   </si>
   <si>
     <t>1400611537</t>
+  </si>
+  <si>
+    <t>RUIZ GONZALEZ  GENESIS PAOLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2216,7 +2215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2335,6 +2334,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2387,41 +2401,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2432,7 +2440,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2459,7 +2466,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2488,7 +2494,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2517,7 +2522,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2550,7 +2554,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
@@ -2584,7 +2587,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2617,7 +2619,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2668,7 +2669,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -2693,7 +2693,6 @@
         <sz val="10"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2713,6 +2712,14 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2783,8 +2790,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95425AC0-4485-45E9-9B38-5A4E0DB4712E}" name="Tabla1" displayName="Tabla1" ref="A5:G234" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A5:G234" xr:uid="{95425AC0-4485-45E9-9B38-5A4E0DB4712E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A5:G234" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A5:G234">
     <filterColumn colId="1">
       <filters>
         <filter val="MENA CHACAGUAZAY SHANEL PAMELA"/>
@@ -2793,17 +2800,17 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:G231">
-    <sortCondition ref="D5:D231"/>
+  <sortState ref="A6:G234">
+    <sortCondition ref="B5:B234"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FD98B0E7-D708-4091-B102-D9DB27895001}" name="Cédula / Pasaporte" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{680EB226-1B1A-4849-9EB0-56C1BD3C5476}" name="Apellidos y Nombres" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A4E632BE-B624-4A55-A2FF-60A5B458CA0F}" name="Fecha de Ingreso" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{B991C471-AFA4-431C-A438-934A83AF5CD6}" name="Centro de Costo " dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B44F0A7B-7D3A-4DD9-8FD7-EB56147961FD}" name="Nombre CC" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E57817AC-2416-4040-9970-AB875446F46C}" name="Tipo de Correo" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{700CEC33-DA91-472E-BED1-80F7F9911183}" name="Correo" dataDxfId="1"/>
+    <tableColumn id="1" name="Cédula / Pasaporte" dataDxfId="6"/>
+    <tableColumn id="2" name="Apellidos y Nombres" dataDxfId="5"/>
+    <tableColumn id="3" name="Fecha de Ingreso" dataDxfId="4"/>
+    <tableColumn id="4" name="Centro de Costo " dataDxfId="3"/>
+    <tableColumn id="5" name="Nombre CC" dataDxfId="2"/>
+    <tableColumn id="6" name="Tipo de Correo" dataDxfId="1"/>
+    <tableColumn id="7" name="Correo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3105,14 +3112,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500820E-73A2-4F21-8CC6-1213397E5FA3}">
-  <dimension ref="A3:G234"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H214" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="5" topLeftCell="H221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G220" sqref="G220"/>
+      <selection pane="bottomRight" activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,11 +3133,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="22">
         <v>44927</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3146,2230 +3153,2202 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>446</v>
-      </c>
       <c r="G5" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44652</v>
+      </c>
+      <c r="D6" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10">
+        <v>44758</v>
+      </c>
+      <c r="D7" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44743</v>
+      </c>
+      <c r="D8" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44725</v>
+      </c>
+      <c r="D9" s="14">
+        <v>6005</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C10" s="10">
         <v>44603</v>
-      </c>
-      <c r="D6" s="14">
-        <v>6001</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="10">
-        <v>44119</v>
-      </c>
-      <c r="D7" s="14">
-        <v>6001</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="10">
-        <v>44088</v>
-      </c>
-      <c r="D8" s="14">
-        <v>6001</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="10">
-        <v>44628</v>
-      </c>
-      <c r="D9" s="14">
-        <v>6001</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="10">
-        <v>44083</v>
       </c>
       <c r="D10" s="14">
         <v>6001</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10">
+        <v>44790</v>
+      </c>
+      <c r="D11" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44743</v>
+      </c>
+      <c r="D12" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44652</v>
+      </c>
+      <c r="D13" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44578</v>
+      </c>
+      <c r="D14" s="14">
+        <v>6007</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="24" t="s">
+        <v>676</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="10">
-        <v>44495</v>
-      </c>
-      <c r="D11" s="14">
-        <v>6001</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="10">
-        <v>44201</v>
-      </c>
-      <c r="D12" s="14">
-        <v>6001</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44664</v>
-      </c>
-      <c r="D13" s="14">
-        <v>6001</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="10">
-        <v>44088</v>
-      </c>
-      <c r="D14" s="14">
-        <v>6002</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="10">
-        <v>44088</v>
-      </c>
-      <c r="D15" s="14">
-        <v>6002</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="C16" s="10">
-        <v>44088</v>
+        <v>44652</v>
       </c>
       <c r="D16" s="14">
-        <v>6002</v>
+        <v>6015</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>276</v>
+        <v>24</v>
       </c>
       <c r="C17" s="10">
-        <v>44566</v>
+        <v>44743</v>
       </c>
       <c r="D17" s="14">
-        <v>6002</v>
+        <v>6015</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>301</v>
+        <v>26</v>
       </c>
       <c r="C18" s="10">
-        <v>44454</v>
+        <v>44764</v>
       </c>
       <c r="D18" s="14">
-        <v>6002</v>
+        <v>6015</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>329</v>
+        <v>682</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>330</v>
+        <v>428</v>
       </c>
       <c r="C19" s="10">
-        <v>44083</v>
+        <v>44959</v>
       </c>
       <c r="D19" s="14">
-        <v>6002</v>
+        <v>6003</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>434</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>367</v>
+        <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>368</v>
+        <v>28</v>
       </c>
       <c r="C20" s="10">
-        <v>44075</v>
+        <v>44200</v>
       </c>
       <c r="D20" s="14">
-        <v>6002</v>
+        <v>6008</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>447</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>395</v>
+        <v>29</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>396</v>
+        <v>30</v>
       </c>
       <c r="C21" s="10">
-        <v>44327</v>
+        <v>44874</v>
       </c>
       <c r="D21" s="14">
-        <v>6002</v>
+        <v>6015</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="C22" s="10">
-        <v>44088</v>
+        <v>44743</v>
       </c>
       <c r="D22" s="14">
-        <v>6003</v>
+        <v>6015</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>536</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="C23" s="10">
+        <v>44200</v>
+      </c>
+      <c r="D23" s="14">
+        <v>6008</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="10">
+        <v>44701</v>
+      </c>
+      <c r="D24" s="14">
+        <v>6005</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="10">
+        <v>44860</v>
+      </c>
+      <c r="D25" s="14">
+        <v>7001</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="10">
+        <v>44764</v>
+      </c>
+      <c r="D26" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="10">
         <v>44088</v>
       </c>
-      <c r="D23" s="14">
-        <v>6003</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="10">
-        <v>44812</v>
-      </c>
-      <c r="D24" s="14">
-        <v>6003</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="10">
-        <v>44739</v>
-      </c>
-      <c r="D25" s="14">
-        <v>6003</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" s="10">
-        <v>44650</v>
-      </c>
-      <c r="D26" s="14">
-        <v>6003</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" s="10">
-        <v>44699</v>
-      </c>
       <c r="D27" s="14">
-        <v>6003</v>
+        <v>6001</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="C28" s="10">
-        <v>44866</v>
+        <v>44082</v>
       </c>
       <c r="D28" s="14">
-        <v>6003</v>
+        <v>7001</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>682</v>
+        <v>44</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="C29" s="10">
-        <v>44701</v>
+        <v>44900</v>
       </c>
       <c r="D29" s="14">
-        <v>6003</v>
+        <v>6008</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>327</v>
+        <v>46</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>328</v>
+        <v>47</v>
       </c>
       <c r="C30" s="10">
-        <v>44606</v>
+        <v>44083</v>
       </c>
       <c r="D30" s="14">
-        <v>6003</v>
+        <v>6004</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>435</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>391</v>
+        <v>48</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>392</v>
+        <v>49</v>
       </c>
       <c r="C31" s="10">
-        <v>44797</v>
+        <v>44881</v>
       </c>
       <c r="D31" s="14">
-        <v>6003</v>
+        <v>6015</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>683</v>
+        <v>50</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>429</v>
+        <v>51</v>
       </c>
       <c r="C32" s="10">
-        <v>44959</v>
+        <v>44097</v>
       </c>
       <c r="D32" s="14">
-        <v>6003</v>
+        <v>6004</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>435</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" s="10">
-        <v>44083</v>
+        <v>44582</v>
       </c>
       <c r="D33" s="14">
-        <v>6004</v>
+        <v>6013</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C34" s="10">
-        <v>44097</v>
+        <v>44743</v>
       </c>
       <c r="D34" s="14">
-        <v>6004</v>
+        <v>6015</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>142</v>
+        <v>422</v>
       </c>
       <c r="C35" s="10">
-        <v>44490</v>
+        <v>44958</v>
       </c>
       <c r="D35" s="14">
-        <v>6004</v>
+        <v>6013</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="C36" s="10">
-        <v>44097</v>
+        <v>44893</v>
       </c>
       <c r="D36" s="14">
-        <v>6004</v>
+        <v>6021</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>224</v>
+        <v>59</v>
       </c>
       <c r="C37" s="10">
-        <v>44363</v>
+        <v>44200</v>
       </c>
       <c r="D37" s="14">
-        <v>6004</v>
+        <v>6008</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>447</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="C38" s="10">
-        <v>44950</v>
+        <v>44083</v>
       </c>
       <c r="D38" s="14">
-        <v>6004</v>
+        <v>6005</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>436</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>304</v>
+        <v>689</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>305</v>
+        <v>62</v>
       </c>
       <c r="C39" s="10">
-        <v>44363</v>
+        <v>44652</v>
       </c>
       <c r="D39" s="14">
-        <v>6004</v>
+        <v>6015</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>310</v>
+        <v>685</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>311</v>
+        <v>63</v>
       </c>
       <c r="C40" s="10">
-        <v>44083</v>
+        <v>44826</v>
       </c>
       <c r="D40" s="14">
-        <v>6004</v>
+        <v>6005</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>436</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>684</v>
+        <v>64</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>430</v>
+        <v>65</v>
       </c>
       <c r="C41" s="10">
-        <v>44959</v>
+        <v>44743</v>
       </c>
       <c r="D41" s="14">
-        <v>6004</v>
+        <v>6015</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C42" s="10">
-        <v>44725</v>
+        <v>44788</v>
       </c>
       <c r="D42" s="14">
-        <v>6005</v>
+        <v>6008</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>685</v>
+        <v>68</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C43" s="10">
-        <v>44701</v>
+        <v>44846</v>
       </c>
       <c r="D43" s="14">
         <v>6005</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C44" s="10">
-        <v>44083</v>
+        <v>44652</v>
       </c>
       <c r="D44" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>686</v>
+        <v>72</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C45" s="10">
-        <v>44826</v>
+        <v>44739</v>
       </c>
       <c r="D45" s="14">
         <v>6005</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C46" s="10">
-        <v>44846</v>
+        <v>44764</v>
       </c>
       <c r="D46" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C47" s="10">
-        <v>44739</v>
+        <v>44652</v>
       </c>
       <c r="D47" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C48" s="10">
-        <v>44454</v>
+        <v>44888</v>
       </c>
       <c r="D48" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="C49" s="10">
         <v>44743</v>
       </c>
       <c r="D49" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="C50" s="10">
-        <v>44166</v>
+        <v>44880</v>
       </c>
       <c r="D50" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="C51" s="10">
-        <v>44228</v>
+        <v>44652</v>
       </c>
       <c r="D51" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="C52" s="10">
-        <v>44811</v>
+        <v>44676</v>
       </c>
       <c r="D52" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="C53" s="10">
-        <v>44613</v>
+        <v>44749</v>
       </c>
       <c r="D53" s="14">
-        <v>6005</v>
+        <v>6008</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>243</v>
+        <v>409</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>244</v>
+        <v>421</v>
       </c>
       <c r="C54" s="10">
-        <v>44399</v>
+        <v>44958</v>
       </c>
       <c r="D54" s="14">
-        <v>6005</v>
+        <v>6013</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>267</v>
+        <v>90</v>
       </c>
       <c r="C55" s="10">
-        <v>44613</v>
+        <v>44764</v>
       </c>
       <c r="D55" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>321</v>
+        <v>91</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>322</v>
+        <v>92</v>
       </c>
       <c r="C56" s="10">
-        <v>44083</v>
+        <v>44935</v>
       </c>
       <c r="D56" s="14">
-        <v>6005</v>
+        <v>7001</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>345</v>
+        <v>691</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>346</v>
+        <v>93</v>
       </c>
       <c r="C57" s="10">
-        <v>44713</v>
+        <v>44827</v>
       </c>
       <c r="D57" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="G57" s="16" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>363</v>
+        <v>94</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>364</v>
+        <v>95</v>
       </c>
       <c r="C58" s="10">
-        <v>44826</v>
+        <v>44743</v>
       </c>
       <c r="D58" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>688</v>
+        <v>96</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>369</v>
+        <v>97</v>
       </c>
       <c r="C59" s="10">
-        <v>44684</v>
+        <v>44743</v>
       </c>
       <c r="D59" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>370</v>
+        <v>98</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>371</v>
+        <v>99</v>
       </c>
       <c r="C60" s="10">
-        <v>44777</v>
+        <v>44894</v>
       </c>
       <c r="D60" s="14">
-        <v>6005</v>
+        <v>7001</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>387</v>
+        <v>100</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>388</v>
+        <v>101</v>
       </c>
       <c r="C61" s="10">
-        <v>44777</v>
+        <v>44888</v>
       </c>
       <c r="D61" s="14">
-        <v>6005</v>
+        <v>6015</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C62" s="10">
-        <v>44578</v>
+        <v>44424</v>
       </c>
       <c r="D62" s="14">
-        <v>6007</v>
+        <v>6015</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="G62" s="17" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C63" s="10">
-        <v>44263</v>
+        <v>44867</v>
       </c>
       <c r="D63" s="14">
-        <v>6007</v>
+        <v>6015</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C64" s="10">
-        <v>44578</v>
+        <v>44454</v>
       </c>
       <c r="D64" s="14">
-        <v>6007</v>
+        <v>6005</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C65" s="10">
-        <v>44874</v>
+        <v>44652</v>
       </c>
       <c r="D65" s="14">
-        <v>6007</v>
+        <v>6015</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>208</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
       <c r="B66" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="10">
-        <v>44935</v>
-      </c>
-      <c r="D66" s="14">
-        <v>6007</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>438</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="G66" s="17" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>351</v>
+        <v>110</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>352</v>
+        <v>111</v>
       </c>
       <c r="C67" s="10">
-        <v>44531</v>
+        <v>44929</v>
       </c>
       <c r="D67" s="14">
-        <v>6007</v>
+        <v>6021</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C68" s="10">
-        <v>44900</v>
+        <v>44935</v>
       </c>
       <c r="D68" s="14">
-        <v>6008</v>
+        <v>6015</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C69" s="10">
-        <v>44788</v>
+        <v>44119</v>
       </c>
       <c r="D69" s="14">
-        <v>6008</v>
+        <v>6001</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F69" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="G69" s="16" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C70" s="10">
-        <v>44749</v>
+        <v>44083</v>
       </c>
       <c r="D70" s="14">
-        <v>6008</v>
+        <v>7001</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="G70" s="16" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="15" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C71" s="10">
-        <v>44200</v>
+        <v>44929</v>
       </c>
       <c r="D71" s="14">
-        <v>6008</v>
+        <v>6021</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C72" s="10">
-        <v>44200</v>
+        <v>44713</v>
       </c>
       <c r="D72" s="14">
-        <v>6008</v>
+        <v>6015</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
       <c r="B73" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" s="10">
-        <v>44200</v>
-      </c>
-      <c r="D73" s="14">
-        <v>6008</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>439</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
       <c r="F73" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G73" s="15"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>273</v>
+        <v>122</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>274</v>
+        <v>123</v>
       </c>
       <c r="C74" s="10">
-        <v>44309</v>
+        <v>44075</v>
       </c>
       <c r="D74" s="14">
-        <v>6008</v>
+        <v>7001</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>379</v>
+        <v>124</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>380</v>
+        <v>125</v>
       </c>
       <c r="C75" s="10">
-        <v>44256</v>
+        <v>44882</v>
       </c>
       <c r="D75" s="14">
-        <v>6008</v>
+        <v>7001</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="C76" s="10">
-        <v>44727</v>
+        <v>44263</v>
       </c>
       <c r="D76" s="14">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>206</v>
+        <v>404</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>207</v>
+        <v>416</v>
       </c>
       <c r="C77" s="10">
-        <v>44222</v>
+        <v>44958</v>
       </c>
       <c r="D77" s="14">
-        <v>6011</v>
+        <v>6013</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>440</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="C78" s="10">
-        <v>44582</v>
+        <v>44578</v>
       </c>
       <c r="D78" s="14">
-        <v>6013</v>
+        <v>6007</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>689</v>
+        <v>130</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c r="C79" s="10">
-        <v>44658</v>
+        <v>44628</v>
       </c>
       <c r="D79" s="14">
-        <v>6013</v>
+        <v>6001</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G79" s="19" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>383</v>
+        <v>132</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>384</v>
+        <v>133</v>
       </c>
       <c r="C80" s="10">
-        <v>44686</v>
+        <v>44951</v>
       </c>
       <c r="D80" s="14">
-        <v>6013</v>
+        <v>6015</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>389</v>
+        <v>134</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>390</v>
+        <v>135</v>
       </c>
       <c r="C81" s="10">
-        <v>44950</v>
+        <v>44083</v>
       </c>
       <c r="D81" s="14">
-        <v>6013</v>
+        <v>6001</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>403</v>
+        <v>136</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="C82" s="10">
-        <v>44958</v>
+        <v>44874</v>
       </c>
       <c r="D82" s="14">
-        <v>6013</v>
+        <v>6007</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>404</v>
+        <v>679</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>417</v>
+        <v>138</v>
       </c>
       <c r="C83" s="10">
-        <v>44958</v>
+        <v>44812</v>
       </c>
       <c r="D83" s="14">
-        <v>6013</v>
+        <v>6003</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>405</v>
+        <v>139</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>418</v>
+        <v>140</v>
       </c>
       <c r="C84" s="10">
-        <v>44958</v>
+        <v>44846</v>
       </c>
       <c r="D84" s="14">
-        <v>6013</v>
+        <v>7001</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="G84" s="15" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="16" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>406</v>
+        <v>141</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>419</v>
+        <v>142</v>
       </c>
       <c r="C85" s="10">
+        <v>44490</v>
+      </c>
+      <c r="D85" s="14">
+        <v>6004</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="10">
+        <v>44716</v>
+      </c>
+      <c r="D86" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="10">
+        <v>44888</v>
+      </c>
+      <c r="D87" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" s="10">
+        <v>44743</v>
+      </c>
+      <c r="D88" s="14">
+        <v>6005</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="10">
+        <v>44867</v>
+      </c>
+      <c r="D89" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" s="10">
+        <v>44652</v>
+      </c>
+      <c r="D90" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="10">
+        <v>44097</v>
+      </c>
+      <c r="D91" s="14">
+        <v>6004</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="10">
+        <v>44166</v>
+      </c>
+      <c r="D92" s="14">
+        <v>6005</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="10">
+        <v>44228</v>
+      </c>
+      <c r="D93" s="14">
+        <v>6005</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="10">
+        <v>44838</v>
+      </c>
+      <c r="D94" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" s="10">
+        <v>44743</v>
+      </c>
+      <c r="D95" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C96" s="10">
         <v>44958</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D96" s="14">
         <v>6013</v>
       </c>
-      <c r="E85" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C86" s="10">
-        <v>44958</v>
-      </c>
-      <c r="D86" s="14">
-        <v>6013</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C87" s="10">
-        <v>44958</v>
-      </c>
-      <c r="D87" s="14">
-        <v>6013</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="C88" s="10">
-        <v>44958</v>
-      </c>
-      <c r="D88" s="14">
-        <v>6013</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C89" s="10">
-        <v>44958</v>
-      </c>
-      <c r="D89" s="14">
-        <v>6013</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C90" s="10">
-        <v>44958</v>
-      </c>
-      <c r="D90" s="14">
-        <v>6013</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G90" s="15" t="s">
+      <c r="E96" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G96" s="15" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C91" s="10">
-        <v>44958</v>
-      </c>
-      <c r="D91" s="14">
-        <v>6013</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C92" s="10">
-        <v>44958</v>
-      </c>
-      <c r="D92" s="14">
-        <v>6013</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C93" s="10">
-        <v>44958</v>
-      </c>
-      <c r="D93" s="14">
-        <v>6013</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C94" s="10">
-        <v>44958</v>
-      </c>
-      <c r="D94" s="14">
-        <v>6013</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="C95" s="10">
-        <v>44958</v>
-      </c>
-      <c r="D95" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="10">
-        <v>44652</v>
-      </c>
-      <c r="D96" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="C97" s="10">
-        <v>44758</v>
+        <v>44088</v>
       </c>
       <c r="D97" s="14">
-        <v>6015</v>
+        <v>6002</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F97" s="14" t="s">
         <v>447</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>7</v>
+        <v>686</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="C98" s="10">
-        <v>44743</v>
+        <v>44811</v>
       </c>
       <c r="D98" s="14">
-        <v>6015</v>
+        <v>6005</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="C99" s="10">
-        <v>44790</v>
+        <v>44837</v>
       </c>
       <c r="D99" s="14">
-        <v>6015</v>
+        <v>6018</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="C100" s="10">
-        <v>44743</v>
+        <v>44652</v>
       </c>
       <c r="D100" s="14">
         <v>6015</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="C101" s="10">
-        <v>44652</v>
+        <v>44944</v>
       </c>
       <c r="D101" s="14">
         <v>6015</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="C102" s="10">
         <v>44652</v>
@@ -5378,458 +5357,458 @@
         <v>6015</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="C103" s="10">
+        <v>44856</v>
+      </c>
+      <c r="D103" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="10">
+        <v>44739</v>
+      </c>
+      <c r="D104" s="14">
+        <v>6003</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105" s="10">
+        <v>44652</v>
+      </c>
+      <c r="D105" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C106" s="10">
+        <v>44684</v>
+      </c>
+      <c r="D106" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" s="10">
+        <v>44879</v>
+      </c>
+      <c r="D107" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="10">
         <v>44743</v>
       </c>
-      <c r="D103" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" s="10">
-        <v>44764</v>
-      </c>
-      <c r="D104" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E104" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C105" s="10">
-        <v>44874</v>
-      </c>
-      <c r="D105" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C106" s="10">
-        <v>44743</v>
-      </c>
-      <c r="D106" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107" s="10">
-        <v>44764</v>
-      </c>
-      <c r="D107" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C108" s="10">
-        <v>44881</v>
-      </c>
       <c r="D108" s="14">
         <v>6015</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="C109" s="10">
-        <v>44743</v>
+        <v>44950</v>
       </c>
       <c r="D109" s="14">
-        <v>6015</v>
+        <v>6021</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>690</v>
+        <v>186</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="C110" s="10">
-        <v>44652</v>
+        <v>44846</v>
       </c>
       <c r="D110" s="14">
         <v>6015</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="C111" s="10">
-        <v>44743</v>
+        <v>44613</v>
       </c>
       <c r="D111" s="14">
-        <v>6015</v>
+        <v>6005</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G111" s="15" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="C112" s="10">
-        <v>44652</v>
+        <v>44088</v>
       </c>
       <c r="D112" s="14">
-        <v>6015</v>
+        <v>6003</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>447</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="C113" s="10">
-        <v>44764</v>
+        <v>44652</v>
       </c>
       <c r="D113" s="14">
         <v>6015</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="C114" s="10">
-        <v>44652</v>
+        <v>44893</v>
       </c>
       <c r="D114" s="14">
-        <v>6015</v>
+        <v>6021</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="C115" s="10">
-        <v>44888</v>
+        <v>44958</v>
       </c>
       <c r="D115" s="14">
-        <v>6015</v>
+        <v>6013</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G115" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="C116" s="10">
-        <v>44743</v>
+        <v>44958</v>
       </c>
       <c r="D116" s="14">
-        <v>6015</v>
+        <v>6013</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="C117" s="10">
-        <v>44880</v>
+        <v>44909</v>
       </c>
       <c r="D117" s="14">
         <v>6015</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="C118" s="10">
-        <v>44652</v>
+        <v>44838</v>
       </c>
       <c r="D118" s="14">
         <v>6015</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>691</v>
+        <v>200</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="C119" s="10">
-        <v>44676</v>
+        <v>44495</v>
       </c>
       <c r="D119" s="14">
-        <v>6015</v>
+        <v>6001</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>432</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>89</v>
+        <v>414</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>90</v>
+        <v>426</v>
       </c>
       <c r="C120" s="10">
-        <v>44764</v>
+        <v>44958</v>
       </c>
       <c r="D120" s="14">
-        <v>6015</v>
+        <v>6013</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="C121" s="10">
-        <v>44743</v>
+        <v>44088</v>
       </c>
       <c r="D121" s="14">
-        <v>6015</v>
+        <v>6002</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F121" s="14" t="s">
         <v>447</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="C122" s="10">
         <v>44743</v>
@@ -5838,366 +5817,366 @@
         <v>6015</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="C123" s="10">
-        <v>44888</v>
+        <v>44222</v>
       </c>
       <c r="D123" s="14">
-        <v>6015</v>
+        <v>6011</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G123" s="16" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="C124" s="10">
+        <v>44935</v>
+      </c>
+      <c r="D124" s="14">
+        <v>6007</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C125" s="10">
         <v>44867</v>
       </c>
-      <c r="D124" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C125" s="10">
+      <c r="D125" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126" s="10">
+        <v>44873</v>
+      </c>
+      <c r="D126" s="14">
+        <v>7001</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C127" s="10">
+        <v>44676</v>
+      </c>
+      <c r="D127" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C128" s="10">
+        <v>44929</v>
+      </c>
+      <c r="D128" s="14">
+        <v>6021</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" s="10">
+        <v>44778</v>
+      </c>
+      <c r="D129" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C130" s="10">
+        <v>44727</v>
+      </c>
+      <c r="D130" s="14">
+        <v>6008</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C131" s="10">
+        <v>44893</v>
+      </c>
+      <c r="D131" s="14">
+        <v>6021</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C132" s="10">
+        <v>44363</v>
+      </c>
+      <c r="D132" s="14">
+        <v>6004</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C133" s="10">
         <v>44652</v>
       </c>
-      <c r="D125" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C126" s="10">
-        <v>44935</v>
-      </c>
-      <c r="D126" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F126" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G126" s="16" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C127" s="10">
-        <v>44827</v>
-      </c>
-      <c r="D127" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C128" s="10">
-        <v>44713</v>
-      </c>
-      <c r="D128" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C129" s="10">
-        <v>44424</v>
-      </c>
-      <c r="D129" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F129" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C130" s="10">
-        <v>44322</v>
-      </c>
-      <c r="D130" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C131" s="10">
-        <v>44951</v>
-      </c>
-      <c r="D131" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E131" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F131" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C132" s="10">
-        <v>44896</v>
-      </c>
-      <c r="D132" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E132" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C133" s="10">
-        <v>44716</v>
-      </c>
       <c r="D133" s="14">
         <v>6015</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="C134" s="10">
-        <v>44888</v>
+        <v>44088</v>
       </c>
       <c r="D134" s="14">
-        <v>6015</v>
+        <v>6003</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F134" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="G134" s="17" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G134" s="15" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="C135" s="10">
-        <v>44867</v>
+        <v>44075</v>
       </c>
       <c r="D135" s="14">
-        <v>6015</v>
+        <v>7001</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="F135" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="G135" s="15" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G135" s="21" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>693</v>
+        <v>231</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="C136" s="10">
+        <v>44893</v>
+      </c>
+      <c r="D136" s="14">
+        <v>6021</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G136" s="18" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C137" s="10">
         <v>44652</v>
       </c>
-      <c r="D136" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C137" s="10">
-        <v>44838</v>
-      </c>
       <c r="D137" s="14">
         <v>6015</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="C138" s="10">
         <v>44743</v>
@@ -6206,21 +6185,21 @@
         <v>6015</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="C139" s="10">
         <v>44652</v>
@@ -6229,90 +6208,90 @@
         <v>6015</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>169</v>
+        <v>683</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>170</v>
+        <v>429</v>
       </c>
       <c r="C140" s="10">
-        <v>44944</v>
+        <v>44959</v>
       </c>
       <c r="D140" s="14">
-        <v>6015</v>
+        <v>6004</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>171</v>
+        <v>408</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>172</v>
+        <v>420</v>
       </c>
       <c r="C141" s="10">
-        <v>44652</v>
+        <v>44958</v>
       </c>
       <c r="D141" s="14">
-        <v>6015</v>
+        <v>6013</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="C142" s="10">
-        <v>44856</v>
+        <v>44950</v>
       </c>
       <c r="D142" s="14">
-        <v>6015</v>
+        <v>6004</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F142" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="C143" s="10">
         <v>44652</v>
@@ -6321,524 +6300,524 @@
         <v>6015</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>694</v>
+        <v>243</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="C144" s="10">
-        <v>44684</v>
+        <v>44399</v>
       </c>
       <c r="D144" s="14">
-        <v>6015</v>
+        <v>6005</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="C145" s="10">
-        <v>44879</v>
+        <v>44950</v>
       </c>
       <c r="D145" s="14">
-        <v>6015</v>
+        <v>6021</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G145" s="17" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
       <c r="C146" s="10">
-        <v>44743</v>
+        <v>44652</v>
       </c>
       <c r="D146" s="14">
         <v>6015</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="C147" s="10">
-        <v>44846</v>
+        <v>44650</v>
       </c>
       <c r="D147" s="14">
-        <v>6015</v>
+        <v>6003</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G147" s="16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="C148" s="10">
-        <v>44652</v>
+        <v>44867</v>
       </c>
       <c r="D148" s="14">
         <v>6015</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C149" s="10">
-        <v>44909</v>
+        <v>44874</v>
       </c>
       <c r="D149" s="14">
         <v>6015</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G149" s="16" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="C150" s="10">
-        <v>44838</v>
+        <v>44778</v>
       </c>
       <c r="D150" s="14">
         <v>6015</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="C151" s="10">
-        <v>44743</v>
+        <v>44322</v>
       </c>
       <c r="D151" s="14">
         <v>6015</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F151" s="14" t="s">
         <v>447</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="C152" s="10">
-        <v>44867</v>
+        <v>44893</v>
       </c>
       <c r="D152" s="14">
-        <v>6015</v>
+        <v>6021</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="C153" s="10">
-        <v>44676</v>
+        <v>44699</v>
       </c>
       <c r="D153" s="14">
-        <v>6015</v>
+        <v>6003</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G153" s="16" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="C154" s="10">
-        <v>44778</v>
+        <v>44929</v>
       </c>
       <c r="D154" s="14">
-        <v>6015</v>
+        <v>6021</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G154" s="15" t="s">
-        <v>495</v>
+        <v>446</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="C155" s="10">
-        <v>44652</v>
+        <v>44088</v>
       </c>
       <c r="D155" s="14">
-        <v>6015</v>
+        <v>6002</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="C156" s="10">
-        <v>44652</v>
+        <v>44613</v>
       </c>
       <c r="D156" s="14">
-        <v>6015</v>
+        <v>6005</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G156" s="15" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G156" s="16" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="C157" s="10">
-        <v>44743</v>
+        <v>44866</v>
       </c>
       <c r="D157" s="14">
-        <v>6015</v>
+        <v>6021</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G157" s="15" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G157" s="18" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>237</v>
+        <v>688</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="C158" s="10">
-        <v>44652</v>
+        <v>44658</v>
       </c>
       <c r="D158" s="14">
-        <v>6015</v>
+        <v>6013</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G158" s="15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G158" s="18" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="C159" s="10">
-        <v>44652</v>
+        <v>44944</v>
       </c>
       <c r="D159" s="14">
         <v>6015</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G159" s="15" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="C160" s="10">
-        <v>44652</v>
+        <v>44309</v>
       </c>
       <c r="D160" s="14">
-        <v>6015</v>
+        <v>6008</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F160" s="14" t="s">
         <v>447</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C161" s="10">
-        <v>44867</v>
+        <v>44566</v>
       </c>
       <c r="D161" s="14">
-        <v>6015</v>
+        <v>6002</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G161" s="15" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G161" s="16" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="C162" s="10">
-        <v>44874</v>
+        <v>44201</v>
       </c>
       <c r="D162" s="14">
-        <v>6015</v>
+        <v>6001</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>432</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="C163" s="10">
-        <v>44778</v>
+        <v>44929</v>
       </c>
       <c r="D163" s="14">
-        <v>6015</v>
+        <v>6021</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G163" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="G163" s="18" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C164" s="10">
+        <v>44652</v>
+      </c>
+      <c r="D164" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G164" s="15" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C164" s="10">
-        <v>44944</v>
-      </c>
-      <c r="D164" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E164" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F164" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G164" s="16" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C165" s="10">
-        <v>44652</v>
+        <v>44075</v>
       </c>
       <c r="D165" s="14">
-        <v>6015</v>
+        <v>7001</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="F165" s="14" t="s">
         <v>447</v>
       </c>
       <c r="G165" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>285</v>
@@ -6850,44 +6829,44 @@
         <v>6015</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G166" s="15" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C167" s="10">
+        <v>44929</v>
+      </c>
+      <c r="D167" s="14">
+        <v>6021</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G167" s="18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B168" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="C167" s="10">
-        <v>44652</v>
-      </c>
-      <c r="D167" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E167" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F167" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G167" s="15" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="C168" s="10">
         <v>44652</v>
@@ -6896,205 +6875,205 @@
         <v>6015</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G168" s="15" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>698</v>
+        <v>290</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C169" s="10">
-        <v>44672</v>
+        <v>44664</v>
       </c>
       <c r="D169" s="14">
-        <v>6015</v>
+        <v>6001</v>
       </c>
       <c r="E169" s="14" t="s">
         <v>432</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G169" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>699</v>
+        <v>292</v>
       </c>
       <c r="B170" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C170" s="10">
+        <v>44866</v>
+      </c>
+      <c r="D170" s="14">
+        <v>6003</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C171" s="10">
+        <v>44958</v>
+      </c>
+      <c r="D171" s="14">
+        <v>6013</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G171" s="15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C172" s="10">
+        <v>44958</v>
+      </c>
+      <c r="D172" s="14">
+        <v>6013</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C173" s="10">
+        <v>44820</v>
+      </c>
+      <c r="D173" s="14">
+        <v>6018</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G173" s="18" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C174" s="10">
+        <v>44652</v>
+      </c>
+      <c r="D174" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G174" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C175" s="10">
+        <v>44958</v>
+      </c>
+      <c r="D175" s="14">
+        <v>6013</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G175" s="15" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C176" s="10">
+        <v>44672</v>
+      </c>
+      <c r="D176" s="14">
+        <v>6015</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G176" s="15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="C170" s="10">
-        <v>44652</v>
-      </c>
-      <c r="D170" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E170" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G170" s="15" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C171" s="10">
-        <v>44764</v>
-      </c>
-      <c r="D171" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E171" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F171" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G171" s="15" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C172" s="10">
-        <v>44889</v>
-      </c>
-      <c r="D172" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E172" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F172" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G172" s="16" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C173" s="10">
-        <v>44764</v>
-      </c>
-      <c r="D173" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F173" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G173" s="15" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C174" s="10">
-        <v>44874</v>
-      </c>
-      <c r="D174" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E174" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F174" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G174" s="15" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C175" s="10">
-        <v>44652</v>
-      </c>
-      <c r="D175" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E175" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F175" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G175" s="15" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C176" s="10">
-        <v>44867</v>
-      </c>
-      <c r="D176" s="14">
-        <v>6015</v>
-      </c>
-      <c r="E176" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="F176" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G176" s="15" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="C177" s="10">
         <v>44652</v>
@@ -7103,228 +7082,228 @@
         <v>6015</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G177" s="15" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="C178" s="10">
-        <v>44838</v>
+        <v>44088</v>
       </c>
       <c r="D178" s="14">
-        <v>6015</v>
+        <v>7001</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="F178" s="14" t="s">
         <v>447</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="C179" s="10">
-        <v>44867</v>
+        <v>44454</v>
       </c>
       <c r="D179" s="14">
-        <v>6015</v>
+        <v>6002</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G179" s="16" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G179" s="15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="C180" s="10">
-        <v>44951</v>
+        <v>44764</v>
       </c>
       <c r="D180" s="14">
         <v>6015</v>
       </c>
       <c r="E180" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G180" s="17" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G180" s="15" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C181" s="10">
-        <v>44867</v>
+        <v>44363</v>
       </c>
       <c r="D181" s="14">
-        <v>6015</v>
+        <v>6004</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="C182" s="10">
-        <v>44652</v>
+        <v>44889</v>
       </c>
       <c r="D182" s="14">
         <v>6015</v>
       </c>
       <c r="E182" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G182" s="15" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G182" s="16" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="C183" s="10">
-        <v>44743</v>
+        <v>44764</v>
       </c>
       <c r="D183" s="14">
         <v>6015</v>
       </c>
       <c r="E183" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G183" s="15" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C184" s="10">
-        <v>44743</v>
+        <v>44083</v>
       </c>
       <c r="D184" s="14">
-        <v>6015</v>
+        <v>6004</v>
       </c>
       <c r="E184" s="14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G184" s="15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>343</v>
+        <v>681</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="C185" s="10">
-        <v>44652</v>
+        <v>44701</v>
       </c>
       <c r="D185" s="14">
-        <v>6015</v>
+        <v>6003</v>
       </c>
       <c r="E185" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F185" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G185" s="16" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="C186" s="10">
-        <v>44867</v>
+        <v>44874</v>
       </c>
       <c r="D186" s="14">
         <v>6015</v>
       </c>
       <c r="E186" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="C187" s="10">
         <v>44652</v>
@@ -7333,67 +7312,67 @@
         <v>6015</v>
       </c>
       <c r="E187" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="C188" s="10">
-        <v>44743</v>
+        <v>44867</v>
       </c>
       <c r="D188" s="14">
         <v>6015</v>
       </c>
       <c r="E188" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G188" s="15" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>358</v>
+        <v>701</v>
       </c>
       <c r="C189" s="10">
-        <v>44694</v>
+        <v>44958</v>
       </c>
       <c r="D189" s="14">
-        <v>6015</v>
+        <v>6013</v>
       </c>
       <c r="E189" s="14" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G189" s="15" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="C190" s="10">
         <v>44652</v>
@@ -7402,418 +7381,416 @@
         <v>6015</v>
       </c>
       <c r="E190" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G190" s="15" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="C191" s="10">
-        <v>44652</v>
+        <v>44083</v>
       </c>
       <c r="D191" s="14">
-        <v>6015</v>
+        <v>6005</v>
       </c>
       <c r="E191" s="14" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="C192" s="10">
-        <v>44743</v>
+        <v>44838</v>
       </c>
       <c r="D192" s="14">
         <v>6015</v>
       </c>
       <c r="E192" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="C193" s="10">
-        <v>44743</v>
+        <v>44867</v>
       </c>
       <c r="D193" s="14">
         <v>6015</v>
       </c>
       <c r="E193" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F193" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G193" s="15" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G193" s="16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="C194" s="10">
-        <v>44880</v>
+        <v>44606</v>
       </c>
       <c r="D194" s="14">
-        <v>6015</v>
+        <v>6003</v>
       </c>
       <c r="E194" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F194" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G194" s="15" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G194" s="16" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
-        <v>700</v>
+        <v>329</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="C195" s="10">
-        <v>44676</v>
+        <v>44083</v>
       </c>
       <c r="D195" s="14">
-        <v>6015</v>
+        <v>6002</v>
       </c>
       <c r="E195" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F195" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="C196" s="10">
-        <v>44652</v>
+        <v>44951</v>
       </c>
       <c r="D196" s="14">
         <v>6015</v>
       </c>
       <c r="E196" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F196" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G196" s="15" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="8" t="s">
-        <v>397</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G196" s="17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="8"/>
       <c r="B197" s="9" t="s">
-        <v>398</v>
+        <v>674</v>
       </c>
       <c r="C197" s="10">
-        <v>44888</v>
+        <v>44958</v>
       </c>
       <c r="D197" s="14">
         <v>6015</v>
       </c>
       <c r="E197" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F197" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="G197" s="18" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G197" s="15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="C198" s="10">
-        <v>44810</v>
+        <v>44867</v>
       </c>
       <c r="D198" s="14">
         <v>6015</v>
       </c>
       <c r="E198" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F198" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="C199" s="10">
-        <v>44769</v>
+        <v>44652</v>
       </c>
       <c r="D199" s="14">
         <v>6015</v>
       </c>
       <c r="E199" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
-        <v>165</v>
+        <v>337</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>166</v>
+        <v>338</v>
       </c>
       <c r="C200" s="10">
-        <v>44837</v>
+        <v>44743</v>
       </c>
       <c r="D200" s="14">
-        <v>6018</v>
+        <v>6015</v>
       </c>
       <c r="E200" s="14" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G200" s="19" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G200" s="15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>701</v>
+        <v>339</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="C201" s="10">
-        <v>44820</v>
+        <v>44743</v>
       </c>
       <c r="D201" s="14">
-        <v>6018</v>
+        <v>6015</v>
       </c>
       <c r="E201" s="14" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G201" s="19" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G201" s="15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>56</v>
+        <v>341</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>57</v>
+        <v>342</v>
       </c>
       <c r="C202" s="10">
-        <v>44893</v>
+        <v>44950</v>
       </c>
       <c r="D202" s="14">
         <v>6021</v>
       </c>
       <c r="E202" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F202" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G202" s="19" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G202" s="18" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>111</v>
+        <v>344</v>
       </c>
       <c r="C203" s="10">
-        <v>44929</v>
+        <v>44652</v>
       </c>
       <c r="D203" s="14">
-        <v>6021</v>
+        <v>6015</v>
       </c>
       <c r="E203" s="14" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G203" s="19" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G203" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>118</v>
+        <v>345</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>119</v>
+        <v>346</v>
       </c>
       <c r="C204" s="10">
-        <v>44929</v>
+        <v>44713</v>
       </c>
       <c r="D204" s="14">
-        <v>6021</v>
+        <v>6005</v>
       </c>
       <c r="E204" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G204" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G204" s="16" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
-        <v>184</v>
+        <v>347</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>185</v>
+        <v>348</v>
       </c>
       <c r="C205" s="10">
-        <v>44950</v>
+        <v>44867</v>
       </c>
       <c r="D205" s="14">
-        <v>6021</v>
+        <v>6015</v>
       </c>
       <c r="E205" s="14" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G205" s="19" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G205" s="15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="C206" s="10">
-        <v>44893</v>
+        <v>44652</v>
       </c>
       <c r="D206" s="14">
-        <v>6021</v>
+        <v>6015</v>
       </c>
       <c r="E206" s="14" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G206" s="16" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G206" s="15" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
-        <v>215</v>
+        <v>351</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>216</v>
+        <v>352</v>
       </c>
       <c r="C207" s="10">
-        <v>44929</v>
+        <v>44531</v>
       </c>
       <c r="D207" s="14">
-        <v>6021</v>
+        <v>6007</v>
       </c>
       <c r="E207" s="14" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G207" s="17" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G207" s="16" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>222</v>
+        <v>354</v>
       </c>
       <c r="C208" s="10">
-        <v>44893</v>
+        <v>44081</v>
       </c>
       <c r="D208" s="14">
-        <v>6021</v>
+        <v>7001</v>
       </c>
       <c r="E208" s="14" t="s">
         <v>443</v>
@@ -7821,591 +7798,624 @@
       <c r="F208" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="G208" s="19" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G208" s="15" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>231</v>
+        <v>355</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="C209" s="10">
-        <v>44893</v>
+        <v>44743</v>
       </c>
       <c r="D209" s="14">
-        <v>6021</v>
+        <v>6015</v>
       </c>
       <c r="E209" s="14" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G209" s="19" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G209" s="15" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>246</v>
+        <v>358</v>
       </c>
       <c r="C210" s="10">
-        <v>44950</v>
+        <v>44694</v>
       </c>
       <c r="D210" s="14">
-        <v>6021</v>
+        <v>6015</v>
       </c>
       <c r="E210" s="14" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G210" s="19" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G210" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
-        <v>259</v>
+        <v>359</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="C211" s="10">
-        <v>44893</v>
+        <v>44652</v>
       </c>
       <c r="D211" s="14">
-        <v>6021</v>
+        <v>6015</v>
       </c>
       <c r="E211" s="14" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G211" s="17" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G211" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>263</v>
+        <v>362</v>
       </c>
       <c r="C212" s="10">
-        <v>44929</v>
+        <v>44896</v>
       </c>
       <c r="D212" s="14">
-        <v>6021</v>
+        <v>6015</v>
       </c>
       <c r="E212" s="14" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F212" s="14" t="s">
         <v>447</v>
       </c>
       <c r="G212" s="16" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>269</v>
+        <v>364</v>
       </c>
       <c r="C213" s="10">
-        <v>44866</v>
+        <v>44826</v>
       </c>
       <c r="D213" s="14">
-        <v>6021</v>
+        <v>6005</v>
       </c>
       <c r="E213" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F213" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G213" s="19" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G213" s="16" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="C214" s="10">
-        <v>44929</v>
+        <v>44652</v>
       </c>
       <c r="D214" s="14">
-        <v>6021</v>
+        <v>6015</v>
       </c>
       <c r="E214" s="14" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F214" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G214" s="19" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G214" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="C215" s="10">
-        <v>44929</v>
+        <v>44075</v>
       </c>
       <c r="D215" s="14">
-        <v>6021</v>
+        <v>6002</v>
       </c>
       <c r="E215" s="14" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F215" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G215" s="19" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G215" s="15" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
-        <v>341</v>
+        <v>687</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="C216" s="10">
-        <v>44950</v>
+        <v>44684</v>
       </c>
       <c r="D216" s="14">
-        <v>6021</v>
+        <v>6005</v>
       </c>
       <c r="E216" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G216" s="19" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G216" s="16" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C217" s="10">
-        <v>44929</v>
+        <v>44777</v>
       </c>
       <c r="D217" s="14">
-        <v>6021</v>
+        <v>6005</v>
       </c>
       <c r="E217" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G217" s="17" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G217" s="16" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="C218" s="10">
-        <v>44929</v>
+        <v>44743</v>
       </c>
       <c r="D218" s="14">
-        <v>6021</v>
+        <v>6015</v>
       </c>
       <c r="E218" s="14" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G218" s="19" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G218" s="15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>122</v>
+        <v>374</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>123</v>
+        <v>375</v>
       </c>
       <c r="C219" s="10">
-        <v>44075</v>
+        <v>44743</v>
       </c>
       <c r="D219" s="14">
-        <v>7001</v>
+        <v>6015</v>
       </c>
       <c r="E219" s="14" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="F219" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>230</v>
+        <v>377</v>
       </c>
       <c r="C220" s="10">
-        <v>44075</v>
+        <v>44880</v>
       </c>
       <c r="D220" s="14">
-        <v>7001</v>
+        <v>6015</v>
       </c>
       <c r="E220" s="14" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G220" s="26" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G220" s="15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>283</v>
+        <v>699</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>284</v>
+        <v>378</v>
       </c>
       <c r="C221" s="10">
-        <v>44075</v>
+        <v>44676</v>
       </c>
       <c r="D221" s="14">
-        <v>7001</v>
+        <v>6015</v>
       </c>
       <c r="E221" s="14" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>36</v>
+        <v>379</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="C222" s="10">
-        <v>44860</v>
+        <v>44256</v>
       </c>
       <c r="D222" s="14">
-        <v>7001</v>
+        <v>6008</v>
       </c>
       <c r="E222" s="14" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G222" s="16" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G222" s="15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="C223" s="10">
-        <v>44081</v>
+        <v>44652</v>
       </c>
       <c r="D223" s="14">
-        <v>7001</v>
+        <v>6015</v>
       </c>
       <c r="E223" s="14" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
-        <v>212</v>
+        <v>383</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>213</v>
+        <v>384</v>
       </c>
       <c r="C224" s="10">
-        <v>44873</v>
+        <v>44686</v>
       </c>
       <c r="D224" s="14">
-        <v>7001</v>
+        <v>6013</v>
       </c>
       <c r="E224" s="14" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="G224" s="16" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G224" s="17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>42</v>
+        <v>406</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>43</v>
+        <v>418</v>
       </c>
       <c r="C225" s="10">
-        <v>44082</v>
+        <v>44958</v>
       </c>
       <c r="D225" s="14">
-        <v>7001</v>
+        <v>6013</v>
       </c>
       <c r="E225" s="14" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G225" s="15" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
-        <v>116</v>
+        <v>385</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>117</v>
+        <v>386</v>
       </c>
       <c r="C226" s="10">
-        <v>44083</v>
+        <v>44929</v>
       </c>
       <c r="D226" s="14">
-        <v>7001</v>
+        <v>6021</v>
       </c>
       <c r="E226" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G226" s="15" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G226" s="17" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
-        <v>124</v>
+        <v>387</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>125</v>
+        <v>388</v>
       </c>
       <c r="C227" s="10">
-        <v>44882</v>
+        <v>44777</v>
       </c>
       <c r="D227" s="14">
-        <v>7001</v>
+        <v>6005</v>
       </c>
       <c r="E227" s="14" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
-        <v>98</v>
+        <v>389</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="C228" s="10">
-        <v>44894</v>
+        <v>44950</v>
       </c>
       <c r="D228" s="14">
-        <v>7001</v>
+        <v>6013</v>
       </c>
       <c r="E228" s="14" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G228" s="16" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
-        <v>91</v>
+        <v>391</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>92</v>
+        <v>392</v>
       </c>
       <c r="C229" s="10">
-        <v>44935</v>
+        <v>44797</v>
       </c>
       <c r="D229" s="14">
-        <v>7001</v>
+        <v>6003</v>
       </c>
       <c r="E229" s="14" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F229" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G229" s="16" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="C230" s="10">
-        <v>44088</v>
+        <v>44929</v>
       </c>
       <c r="D230" s="14">
-        <v>7001</v>
+        <v>6021</v>
       </c>
       <c r="E230" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="G230" s="15" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G230" s="18" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>139</v>
+        <v>395</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="C231" s="13">
-        <v>44846</v>
-      </c>
-      <c r="D231" s="20">
-        <v>7001</v>
-      </c>
-      <c r="E231" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="F231" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="G231" s="21" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="11"/>
-      <c r="B232" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="C232" s="13"/>
-      <c r="D232" s="20"/>
-      <c r="E232" s="20"/>
-      <c r="F232" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="G232" s="22"/>
-    </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="11"/>
+        <v>44327</v>
+      </c>
+      <c r="D231" s="19">
+        <v>6002</v>
+      </c>
+      <c r="E231" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="F231" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="G231" s="20" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C232" s="13">
+        <v>44888</v>
+      </c>
+      <c r="D232" s="19">
+        <v>6015</v>
+      </c>
+      <c r="E232" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="F232" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="G232" s="25" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="11" t="s">
+        <v>399</v>
+      </c>
       <c r="B233" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="C233" s="13"/>
-      <c r="D233" s="20"/>
-      <c r="E233" s="20"/>
-      <c r="F233" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="G233" s="22"/>
-    </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="11"/>
+        <v>400</v>
+      </c>
+      <c r="C233" s="13">
+        <v>44810</v>
+      </c>
+      <c r="D233" s="19">
+        <v>6015</v>
+      </c>
+      <c r="E233" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="F233" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="G233" s="20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="11" t="s">
+        <v>401</v>
+      </c>
       <c r="B234" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="C234" s="13"/>
-      <c r="D234" s="20"/>
-      <c r="E234" s="20"/>
-      <c r="F234" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="G234" s="22"/>
+        <v>402</v>
+      </c>
+      <c r="C234" s="13">
+        <v>44769</v>
+      </c>
+      <c r="D234" s="19">
+        <v>6015</v>
+      </c>
+      <c r="E234" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="F234" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="G234" s="20" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F236" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="B234">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Never logged in">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Never logged in">
       <formula>NOT(ISERROR(SEARCH(("Never logged in"),(B234))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G95" r:id="rId1" xr:uid="{CA8C1C6D-6B4B-4705-BF1D-6C091F4F3F24}"/>
-    <hyperlink ref="B232" r:id="rId2" xr:uid="{07D67C3E-FDB0-4416-BF40-DB6A57D03119}"/>
-    <hyperlink ref="G220" r:id="rId3" xr:uid="{29D03728-9F74-4837-BD55-8DD33898CDD5}"/>
+    <hyperlink ref="G197" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="G135" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
